--- a/data/trans_dic/iP30A3_2023-Habitat-trans_dic.xlsx
+++ b/data/trans_dic/iP30A3_2023-Habitat-trans_dic.xlsx
@@ -546,7 +546,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>10/50</t>
+          <t>Menos de 2</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -556,17 +556,17 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>83,6%</t>
+          <t>77,52%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>88,12%</t>
+          <t>64,86%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>85,57%</t>
+          <t>70,13%</t>
         </is>
       </c>
     </row>
@@ -579,17 +579,17 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>78,79; 87,46</t>
+          <t>51,05; 94,1</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>83,85; 91,47</t>
+          <t>42,83; 81,56</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>82,64; 88,31</t>
+          <t>53,28; 82,6</t>
         </is>
       </c>
     </row>
@@ -646,7 +646,7 @@
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>Capitales</t>
+          <t>10/50</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -656,17 +656,17 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>83,27%</t>
+          <t>83,6%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>78,13%</t>
+          <t>88,12%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>80,72%</t>
+          <t>85,57%</t>
         </is>
       </c>
     </row>
@@ -679,24 +679,24 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>78,22; 87,9</t>
+          <t>78,79; 87,46</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>72,49; 83,38</t>
+          <t>83,85; 91,47</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>76,93; 84,09</t>
+          <t>82,64; 88,31</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>Menos de 2</t>
+          <t>mas de 50</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -706,17 +706,17 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>77,52%</t>
+          <t>73,64%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>64,86%</t>
+          <t>79,14%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>70,13%</t>
+          <t>76,35%</t>
         </is>
       </c>
     </row>
@@ -729,24 +729,24 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>51,05; 94,1</t>
+          <t>67,21; 79,52</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>42,83; 81,56</t>
+          <t>72,74; 84,6</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>53,28; 82,6</t>
+          <t>71,83; 80,49</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>mas de 50</t>
+          <t>Capitales</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -756,17 +756,17 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>73,64%</t>
+          <t>83,27%</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>79,14%</t>
+          <t>78,13%</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>76,35%</t>
+          <t>80,72%</t>
         </is>
       </c>
     </row>
@@ -779,17 +779,17 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>67,21; 79,52</t>
+          <t>78,22; 87,9</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>72,74; 84,6</t>
+          <t>72,49; 83,38</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>71,83; 80,49</t>
+          <t>76,93; 84,09</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/iP30A3_2023-Habitat-trans_dic.xlsx
+++ b/data/trans_dic/iP30A3_2023-Habitat-trans_dic.xlsx
@@ -476,7 +476,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E15"/>
+  <dimension ref="A1:E16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -556,17 +556,17 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>77,52%</t>
+          <t>83,8%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>64,86%</t>
+          <t>67,91%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>70,13%</t>
+          <t>74,52%</t>
         </is>
       </c>
     </row>
@@ -579,17 +579,17 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>51,05; 94,1</t>
+          <t>60,78; 95,85</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>42,83; 81,56</t>
+          <t>47,37; 84,84</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>53,28; 82,6</t>
+          <t>56,84; 85,98</t>
         </is>
       </c>
     </row>
@@ -606,17 +606,17 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>84,72%</t>
+          <t>86,83%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>89,89%</t>
+          <t>91,17%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>87,17%</t>
+          <t>88,89%</t>
         </is>
       </c>
     </row>
@@ -629,17 +629,17 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>77,55; 89,91</t>
+          <t>80,47; 92,0</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>84,44; 93,96</t>
+          <t>86,35; 94,9</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>82,54; 90,52</t>
+          <t>84,45; 91,92</t>
         </is>
       </c>
     </row>
@@ -656,17 +656,17 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>83,6%</t>
+          <t>87,08%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>88,12%</t>
+          <t>89,25%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>85,57%</t>
+          <t>88,03%</t>
         </is>
       </c>
     </row>
@@ -679,17 +679,17 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>78,79; 87,46</t>
+          <t>82,5; 90,5</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>83,85; 91,47</t>
+          <t>84,91; 92,32</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>82,64; 88,31</t>
+          <t>85,32; 90,42</t>
         </is>
       </c>
     </row>
@@ -706,17 +706,17 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>73,64%</t>
+          <t>75,21%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>79,14%</t>
+          <t>80,38%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>76,35%</t>
+          <t>77,76%</t>
         </is>
       </c>
     </row>
@@ -729,17 +729,17 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>67,21; 79,52</t>
+          <t>68,61; 80,63</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>72,74; 84,6</t>
+          <t>74,29; 85,38</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>71,83; 80,49</t>
+          <t>73,3; 81,97</t>
         </is>
       </c>
     </row>
@@ -756,17 +756,17 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>83,27%</t>
+          <t>85,92%</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>78,13%</t>
+          <t>80,44%</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>80,72%</t>
+          <t>83,2%</t>
         </is>
       </c>
     </row>
@@ -779,17 +779,17 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>78,22; 87,9</t>
+          <t>80,78; 90,11</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>72,49; 83,38</t>
+          <t>74,95; 85,39</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>76,93; 84,09</t>
+          <t>79,16; 86,21</t>
         </is>
       </c>
     </row>
@@ -806,17 +806,17 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>81,2%</t>
+          <t>83,85%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>82,86%</t>
+          <t>84,4%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>81,99%</t>
+          <t>84,11%</t>
         </is>
       </c>
     </row>
@@ -829,17 +829,24 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>78,38; 83,7</t>
+          <t>81,3; 86,35</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>80,31; 85,48</t>
+          <t>81,69; 86,6</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>80,09; 83,82</t>
+          <t>82,17; 85,73</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
         </is>
       </c>
     </row>
